--- a/wcsa4seleniumproject/data/InstagramTestData.xlsx
+++ b/wcsa4seleniumproject/data/InstagramTestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\wcsa4seleniumproject\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484236D-D404-457B-A574-55D9C8D1FF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{96CEFE43-49C2-4BAA-943C-0F46AA861BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
